--- a/logs/lc_key_log.xlsx
+++ b/logs/lc_key_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>person</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Peter/Spare</t>
+  </si>
+  <si>
+    <t>Jaime</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +693,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
@@ -698,12 +724,6 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
